--- a/IDCM Compare.xlsx
+++ b/IDCM Compare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XX\Projects\ccxt\ticker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XX\Projects\ccxt\price_compare\IDCM_Compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>USDT:CNY 汇率</t>
   </si>
@@ -103,15 +103,20 @@
   </si>
   <si>
     <t>收到 VHKD</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -190,7 +195,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +219,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -246,62 +253,67 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>1526350746056</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="B3">
-            <v>8385.35</v>
+            <v>8673.3700000000008</v>
           </cell>
           <cell r="C3">
-            <v>8380.8914999999997</v>
+            <v>8669.6635999999999</v>
           </cell>
           <cell r="D3">
-            <v>8368.4500000000007</v>
+            <v>8664.42</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>8387.9</v>
+            <v>8679.86</v>
           </cell>
           <cell r="C4">
-            <v>8396.8011999999999</v>
+            <v>8687.1563999999998</v>
           </cell>
           <cell r="D4">
-            <v>8385.3700000000008</v>
+            <v>8676.48</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="B3">
-            <v>705.97</v>
+            <v>726.21</v>
           </cell>
           <cell r="C3">
-            <v>705.67809999999997</v>
+            <v>725.86</v>
           </cell>
           <cell r="D3">
-            <v>704.31</v>
+            <v>726.68</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>706.8</v>
+            <v>726.27</v>
           </cell>
           <cell r="C4">
-            <v>706.09209999999996</v>
+            <v>726.94200000000001</v>
           </cell>
           <cell r="D4">
-            <v>706.1</v>
+            <v>727.34</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="B3">
-            <v>6.57</v>
+            <v>6.5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>6.58</v>
+            <v>6.51</v>
           </cell>
         </row>
       </sheetData>
@@ -313,7 +325,7 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.82769999999999999</v>
+            <v>0.82879999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -621,16 +633,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.1328125" customWidth="1"/>
-    <col min="2" max="6" width="28.1328125" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="15">
+        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
+        <v>43235.429931203704</v>
+      </c>
+      <c r="C1" s="16">
+        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
+        <v>43235.429931203704</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
@@ -660,19 +689,19 @@
       </c>
       <c r="C5" s="11">
         <f>[1]usdt_c2c_price!$B$4</f>
-        <v>6.58</v>
+        <v>6.51</v>
       </c>
       <c r="D5" s="2">
         <f>B5/C5</f>
-        <v>15197.568389057751</v>
+        <v>15360.983102918588</v>
       </c>
       <c r="E5" s="11">
         <f>[1]btc_ticker_price!$B$4</f>
-        <v>8387.9</v>
+        <v>8679.86</v>
       </c>
       <c r="F5" s="8">
         <f>D5/E5</f>
-        <v>1.8118442505344308</v>
+        <v>1.7697270581459363</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -691,11 +720,11 @@
       </c>
       <c r="E6" s="11">
         <f>[1]btc_ticker_price!$C$4</f>
-        <v>8396.8011999999999</v>
+        <v>8687.1563999999998</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F10" si="1">D6/E6</f>
-        <v>1.7989874740953593</v>
+        <v>1.7388590104431505</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -714,11 +743,11 @@
       </c>
       <c r="E7" s="11">
         <f>[1]btc_ticker_price!$D$4</f>
-        <v>8385.3700000000008</v>
+        <v>8676.48</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="1"/>
-        <v>1.8030741165238211</v>
+        <v>1.7425780506006301</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -755,18 +784,18 @@
       </c>
       <c r="C10" s="11">
         <f>[1]vhkd_c2c_price!$B$4</f>
-        <v>0.82769999999999999</v>
+        <v>0.82879999999999998</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>120816.72103419113</v>
+        <v>120656.37065637067</v>
       </c>
       <c r="E10" s="12">
         <v>66033</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="1"/>
-        <v>1.8296415585266628</v>
+        <v>1.8272132215160701</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -775,7 +804,7 @@
       </c>
       <c r="F12" s="5">
         <f>(F10/(AVERAGE(F5,F6,F7))-1)</f>
-        <v>1.3856693601156378E-2</v>
+        <v>4.3890371758949609E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -807,19 +836,19 @@
       </c>
       <c r="C18" s="11">
         <f>[1]btc_ticker_price!$B$3</f>
-        <v>8385.35</v>
+        <v>8673.3700000000008</v>
       </c>
       <c r="D18" s="2">
         <f>C18*B18</f>
-        <v>16770.7</v>
+        <v>17346.740000000002</v>
       </c>
       <c r="E18" s="14">
         <f>[1]usdt_c2c_price!$B$3</f>
-        <v>6.57</v>
+        <v>6.5</v>
       </c>
       <c r="F18" s="10">
         <f>D18*E18</f>
-        <v>110183.49900000001</v>
+        <v>112753.81000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -831,18 +860,18 @@
       </c>
       <c r="C19" s="11">
         <f>[1]btc_ticker_price!$C$3</f>
-        <v>8380.8914999999997</v>
+        <v>8669.6635999999999</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ref="D19:D20" si="2">C19*B19</f>
-        <v>16761.782999999999</v>
+        <v>17339.3272</v>
       </c>
       <c r="E19" s="13">
         <v>6.61</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" ref="F19:F20" si="3">D19*E19</f>
-        <v>110795.38563</v>
+        <v>114612.95279200001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -854,18 +883,18 @@
       </c>
       <c r="C20" s="11">
         <f>[1]btc_ticker_price!$D$3</f>
-        <v>8368.4500000000007</v>
+        <v>8664.42</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="2"/>
-        <v>16736.900000000001</v>
+        <v>17328.84</v>
       </c>
       <c r="E20" s="13">
         <v>6.61</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="3"/>
-        <v>110630.90900000001</v>
+        <v>114543.6324</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -929,7 +958,7 @@
       </c>
       <c r="F25" s="5">
         <f>-(F23/(AVERAGE(F18,F19,F20))-1)</f>
-        <v>2.0287198265037776E-2</v>
+        <v>4.9802624990205158E-2</v>
       </c>
     </row>
   </sheetData>
@@ -943,12 +972,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.1328125" customWidth="1"/>
-    <col min="2" max="6" width="28.1328125" customWidth="1"/>
+    <col min="1" max="1" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -980,19 +1015,19 @@
       </c>
       <c r="C5" s="11">
         <f>[1]usdt_c2c_price!$B$4</f>
-        <v>6.58</v>
+        <v>6.51</v>
       </c>
       <c r="D5" s="2">
         <f>B5/C5</f>
-        <v>15197.568389057751</v>
+        <v>15360.983102918588</v>
       </c>
       <c r="E5" s="11">
         <f>[1]eth_ticker_price!$B$4</f>
-        <v>706.8</v>
+        <v>726.27</v>
       </c>
       <c r="F5" s="8">
         <f>D5/E5</f>
-        <v>21.501936034320533</v>
+        <v>21.150513036361943</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1011,11 +1046,11 @@
       </c>
       <c r="E6" s="11">
         <f>[1]eth_ticker_price!$C$4</f>
-        <v>706.09209999999996</v>
+        <v>726.94200000000001</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F10" si="1">D6/E6</f>
-        <v>21.393441707206303</v>
+        <v>20.779842382568187</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1034,11 +1069,11 @@
       </c>
       <c r="E7" s="11">
         <f>[1]eth_ticker_price!$D$4</f>
-        <v>706.1</v>
+        <v>727.34</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="1"/>
-        <v>21.412609551728302</v>
+        <v>20.787312129781608</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1075,18 +1110,18 @@
       </c>
       <c r="C10" s="11">
         <f>[1]vhkd_c2c_price!$B$4</f>
-        <v>0.82769999999999999</v>
+        <v>0.82879999999999998</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>120816.72103419113</v>
+        <v>120656.37065637067</v>
       </c>
       <c r="E10" s="12">
         <v>66033</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="1"/>
-        <v>1.8296415585266628</v>
+        <v>1.8272132215160701</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -1095,7 +1130,7 @@
       </c>
       <c r="F12" s="5">
         <f>(F10/(AVERAGE(F5,F6,F7))-1)</f>
-        <v>-0.91464629968048017</v>
+        <v>-0.91259815808215905</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1127,19 +1162,19 @@
       </c>
       <c r="C18" s="11">
         <f>[1]eth_ticker_price!$B$3</f>
-        <v>705.97</v>
+        <v>726.21</v>
       </c>
       <c r="D18" s="2">
         <f>C18*B18</f>
-        <v>1411.94</v>
+        <v>1452.42</v>
       </c>
       <c r="E18" s="14">
         <f>[1]usdt_c2c_price!$B$3</f>
-        <v>6.57</v>
+        <v>6.5</v>
       </c>
       <c r="F18" s="10">
         <f>D18*E18</f>
-        <v>9276.4458000000013</v>
+        <v>9440.73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1151,18 +1186,18 @@
       </c>
       <c r="C19" s="11">
         <f>[1]eth_ticker_price!$C$3</f>
-        <v>705.67809999999997</v>
+        <v>725.86</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ref="D19:D20" si="2">C19*B19</f>
-        <v>1411.3561999999999</v>
+        <v>1451.72</v>
       </c>
       <c r="E19" s="13">
         <v>6.61</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" ref="F19:F20" si="3">D19*E19</f>
-        <v>9329.0644819999998</v>
+        <v>9595.869200000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1174,18 +1209,18 @@
       </c>
       <c r="C20" s="11">
         <f>[1]eth_ticker_price!$D$3</f>
-        <v>704.31</v>
+        <v>726.68</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="2"/>
-        <v>1408.62</v>
+        <v>1453.36</v>
       </c>
       <c r="E20" s="13">
         <v>6.61</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="3"/>
-        <v>9310.9781999999996</v>
+        <v>9606.7096000000001</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1249,7 +1284,7 @@
       </c>
       <c r="F25" s="5">
         <f>-(F23/(AVERAGE(F18,F19,F20))-1)</f>
-        <v>-10.637651354663667</v>
+        <v>-10.342347431592819</v>
       </c>
     </row>
   </sheetData>

--- a/IDCM Compare.xlsx
+++ b/IDCM Compare.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
   <si>
     <t>USDT:CNY 汇率</t>
   </si>
@@ -51,9 +51,6 @@
     <t>BTC:VHKD 买价格</t>
   </si>
   <si>
-    <t>IDCM比中国市场便宜:</t>
-  </si>
-  <si>
     <t>Huobi</t>
   </si>
   <si>
@@ -103,22 +100,42 @@
   </si>
   <si>
     <t>收到 VHKD</t>
+  </si>
+  <si>
+    <t>客户买BTC</t>
+  </si>
+  <si>
+    <t>IDCM比较</t>
+  </si>
+  <si>
+    <t>https://www.huobi.pro/</t>
+  </si>
+  <si>
+    <t>https://www.okcoin.com</t>
+  </si>
+  <si>
+    <t>https://www.zb.com/</t>
   </si>
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户买ETH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +165,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,20 +193,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -189,43 +202,217 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="千位分隔 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,662 +820,869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1328125" customWidth="1"/>
+    <col min="2" max="6" width="28.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="36">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
         <v>43235.429931203704</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="37">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
         <v>43235.429931203704</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="G4" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="28">
         <v>100000</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="14">
         <f>[1]usdt_c2c_price!$B$4</f>
         <v>6.51</v>
       </c>
-      <c r="D5" s="2">
-        <f>B5/C5</f>
-        <v>15360.983102918588</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="19">
+        <v>15197.568389057751</v>
+      </c>
+      <c r="E5" s="19">
         <f>[1]btc_ticker_price!$B$4</f>
         <v>8679.86</v>
       </c>
-      <c r="F5" s="8">
-        <f>D5/E5</f>
-        <v>1.7697270581459363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="F5" s="26">
+        <v>1.8118442505344308</v>
+      </c>
+      <c r="G5" s="20">
+        <v>-9.8227582127892177E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="19">
         <v>100000</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="29">
         <v>6.62</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D10" si="0">B6/C6</f>
+      <c r="D6" s="19">
         <v>15105.740181268882</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="19">
         <f>[1]btc_ticker_price!$C$4</f>
         <v>8687.1563999999998</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" ref="F6:F10" si="1">D6/E6</f>
-        <v>1.7388590104431505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="F6" s="26">
+        <v>1.7989874740953593</v>
+      </c>
+      <c r="G6" s="20">
+        <v>-1.7039631944473665E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="19">
         <v>100000</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="30">
         <v>6.6139999999999999</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
+      <c r="D7" s="19">
         <v>15119.443604475355</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="19">
         <f>[1]btc_ticker_price!$D$4</f>
         <v>8676.48</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>1.7425780506006301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="F7" s="26">
+        <v>1.8030741165238211</v>
+      </c>
+      <c r="G7" s="20">
+        <v>-1.4734525752087002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="32">
         <v>100000</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="33">
         <f>[1]vhkd_c2c_price!$B$4</f>
         <v>0.82879999999999998</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>120656.37065637067</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="32">
+        <v>120816.72103419113</v>
+      </c>
+      <c r="E10" s="21">
         <v>66033</v>
       </c>
-      <c r="F10" s="9">
-        <f t="shared" si="1"/>
-        <v>1.8272132215160701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E12" s="3" t="s">
+      <c r="F10" s="34">
+        <v>1.8296415585266628</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="5">
-        <f>(F10/(AVERAGE(F5,F6,F7))-1)</f>
-        <v>4.3890371758949609E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="B16" s="28">
         <v>2</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C16" s="19">
         <f>[1]btc_ticker_price!$B$3</f>
         <v>8673.3700000000008</v>
       </c>
-      <c r="D18" s="2">
-        <f>C18*B18</f>
-        <v>17346.740000000002</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D16" s="19">
+        <v>16770.7</v>
+      </c>
+      <c r="E16" s="19">
         <f>[1]usdt_c2c_price!$B$3</f>
         <v>6.5</v>
       </c>
-      <c r="F18" s="10">
-        <f>D18*E18</f>
-        <v>112753.81000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="F16" s="19">
+        <v>110183.49900000001</v>
+      </c>
+      <c r="G16" s="20">
+        <v>-1.7936433476304914E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19">
         <v>2</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C17" s="19">
         <f>[1]btc_ticker_price!$C$3</f>
         <v>8669.6635999999999</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19:D20" si="2">C19*B19</f>
-        <v>17339.3272</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="D17" s="19">
+        <v>16761.782999999999</v>
+      </c>
+      <c r="E17" s="28">
         <v>6.61</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" ref="F19:F20" si="3">D19*E19</f>
-        <v>114612.95279200001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="F17" s="19">
+        <v>110795.38563</v>
+      </c>
+      <c r="G17" s="20">
+        <v>-2.3360048934196853E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="19">
         <v>2</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C18" s="19">
         <f>[1]btc_ticker_price!$D$3</f>
         <v>8664.42</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="2"/>
-        <v>17328.84</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D18" s="19">
+        <v>16736.900000000001</v>
+      </c>
+      <c r="E18" s="28">
         <v>6.61</v>
       </c>
-      <c r="F20" s="10">
-        <f t="shared" si="3"/>
-        <v>114543.6324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+      <c r="F18" s="19">
+        <v>110630.90900000001</v>
+      </c>
+      <c r="G18" s="20">
+        <v>-2.1908063685891044E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="F20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="32">
         <v>2</v>
       </c>
-      <c r="C23" s="12">
-        <v>66033</v>
-      </c>
-      <c r="D23" s="7">
-        <f>C23*B23</f>
-        <v>132066</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="C21" s="21">
+        <v>65980</v>
+      </c>
+      <c r="D21" s="32">
+        <v>131960</v>
+      </c>
+      <c r="E21" s="33">
         <f>[1]vhkd_c2c_price!$B$3</f>
         <v>0.82</v>
       </c>
-      <c r="F23" s="9">
-        <f>D23*E23</f>
-        <v>108294.12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E25" s="3" t="s">
+      <c r="F21" s="32">
+        <v>108207.2</v>
+      </c>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="5">
-        <f>-(F23/(AVERAGE(F18,F19,F20))-1)</f>
-        <v>4.9802624990205158E-2</v>
-      </c>
+      <c r="B24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1328125" customWidth="1"/>
+    <col min="2" max="6" width="28.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="36">
+        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
+        <v>43235.429931203704</v>
+      </c>
+      <c r="C1" s="37">
+        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
+        <v>43235.429931203704</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="G4" s="57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="60">
         <v>100000</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="45">
         <f>[1]usdt_c2c_price!$B$4</f>
         <v>6.51</v>
       </c>
-      <c r="D5" s="2">
-        <f>B5/C5</f>
-        <v>15360.983102918588</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="50">
+        <v>15197.568389057751</v>
+      </c>
+      <c r="E5" s="58">
         <f>[1]eth_ticker_price!$B$4</f>
         <v>726.27</v>
       </c>
-      <c r="F5" s="8">
-        <f>D5/E5</f>
-        <v>21.150513036361943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="F5" s="51">
+        <v>21.501936034320533</v>
+      </c>
+      <c r="G5" s="52">
+        <v>-5.1657253120538371E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="50">
         <v>100000</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="61">
         <v>6.62</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D10" si="0">B6/C6</f>
+      <c r="D6" s="50">
         <v>15105.740181268882</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="58">
         <f>[1]eth_ticker_price!$C$4</f>
         <v>726.94200000000001</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" ref="F6:F10" si="1">D6/E6</f>
-        <v>20.779842382568187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="F6" s="51">
+        <v>21.393441707206303</v>
+      </c>
+      <c r="G6" s="52">
+        <v>-1.0263305238582543E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="50">
         <v>100000</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="62">
         <v>6.6139999999999999</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
+      <c r="D7" s="50">
         <v>15119.443604475355</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="58">
         <f>[1]eth_ticker_price!$D$4</f>
         <v>727.34</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>20.787312129781608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="F7" s="51">
+        <v>21.412609551728302</v>
+      </c>
+      <c r="G7" s="52">
+        <v>-9.358951665314752E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="64">
         <v>100000</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="65">
         <f>[1]vhkd_c2c_price!$B$4</f>
         <v>0.82879999999999998</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>120656.37065637067</v>
-      </c>
-      <c r="E10" s="12">
-        <v>66033</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="1"/>
-        <v>1.8272132215160701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E12" s="3" t="s">
+      <c r="D10" s="64">
+        <v>120816.72103419113</v>
+      </c>
+      <c r="E10" s="53">
+        <v>5590</v>
+      </c>
+      <c r="F10" s="66">
+        <v>21.613009129551184</v>
+      </c>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A13" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="5">
-        <f>(F10/(AVERAGE(F5,F6,F7))-1)</f>
-        <v>-0.91259815808215905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B16" s="60">
+        <v>20</v>
+      </c>
+      <c r="C16" s="58">
         <f>[1]eth_ticker_price!$B$3</f>
         <v>726.21</v>
       </c>
-      <c r="D18" s="2">
-        <f>C18*B18</f>
-        <v>1452.42</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D16" s="50">
+        <v>14119.400000000001</v>
+      </c>
+      <c r="E16" s="50">
         <f>[1]usdt_c2c_price!$B$3</f>
         <v>6.5</v>
       </c>
-      <c r="F18" s="10">
-        <f>D18*E18</f>
-        <v>9440.73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="F16" s="50">
+        <v>92764.458000000013</v>
+      </c>
+      <c r="G16" s="52">
+        <v>-1.3501485665986523E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="50">
+        <v>20</v>
+      </c>
+      <c r="C17" s="58">
         <f>[1]eth_ticker_price!$C$3</f>
         <v>725.86</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19:D20" si="2">C19*B19</f>
-        <v>1451.72</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="D17" s="50">
+        <v>14113.562</v>
+      </c>
+      <c r="E17" s="60">
         <v>6.61</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" ref="F19:F20" si="3">D19*E19</f>
-        <v>9595.869200000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="F17" s="50">
+        <v>93290.644820000001</v>
+      </c>
+      <c r="G17" s="52">
+        <v>-1.9065628964531345E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="50">
+        <v>20</v>
+      </c>
+      <c r="C18" s="58">
         <f>[1]eth_ticker_price!$D$3</f>
         <v>726.68</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="2"/>
-        <v>1453.36</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D18" s="50">
+        <v>14086.199999999999</v>
+      </c>
+      <c r="E18" s="60">
         <v>6.61</v>
       </c>
-      <c r="F20" s="10">
-        <f t="shared" si="3"/>
-        <v>9606.7096000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F18" s="50">
+        <v>93109.781999999992</v>
+      </c>
+      <c r="G18" s="52">
+        <v>-1.7160194833234499E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="7">
-        <v>2</v>
-      </c>
-      <c r="C23" s="12">
-        <v>66033</v>
-      </c>
-      <c r="D23" s="7">
-        <f>C23*B23</f>
-        <v>132066</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="F20" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="64">
+        <v>20</v>
+      </c>
+      <c r="C21" s="53">
+        <v>5580</v>
+      </c>
+      <c r="D21" s="64">
+        <v>111600</v>
+      </c>
+      <c r="E21" s="65">
         <f>[1]vhkd_c2c_price!$B$3</f>
         <v>0.82</v>
       </c>
-      <c r="F23" s="9">
-        <f>D23*E23</f>
-        <v>108294.12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E25" s="3" t="s">
+      <c r="F21" s="64">
+        <v>91512</v>
+      </c>
+      <c r="G21" s="54"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="5">
-        <f>-(F23/(AVERAGE(F18,F19,F20))-1)</f>
-        <v>-10.342347431592819</v>
-      </c>
+      <c r="B24" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/IDCM Compare.xlsx
+++ b/IDCM Compare.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XX\Projects\ccxt\price_compare\IDCM_Compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sp4\XX\Projects\IDCM_Compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
   <si>
     <t>USDT:CNY 汇率</t>
   </si>
@@ -115,23 +115,26 @@
   </si>
   <si>
     <t>https://www.zb.com/</t>
+  </si>
+  <si>
+    <t>客户买ETH</t>
   </si>
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户买ETH</t>
+    <t>更新时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000000"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -289,20 +292,20 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,9 +326,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,77 +337,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -414,8 +358,137 @@
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="千位分隔 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -531,7 +604,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -824,423 +897,401 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1328125" customWidth="1"/>
-    <col min="2" max="6" width="28.1328125" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="28.125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="36">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
         <v>43235.429931203704</v>
       </c>
-      <c r="C1" s="37">
+      <c r="C1" s="5">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
         <v>43235.429931203704</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>100000</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <f>[1]usdt_c2c_price!$B$4</f>
         <v>6.51</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="28">
         <v>15197.568389057751</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="28">
         <f>[1]btc_ticker_price!$B$4</f>
         <v>8679.86</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="1">
         <v>1.8118442505344308</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <v>-9.8227582127892177E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="28">
         <v>100000</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="23">
         <v>6.62</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="28">
         <v>15105.740181268882</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="28">
         <f>[1]btc_ticker_price!$C$4</f>
         <v>8687.1563999999998</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="1">
         <v>1.7989874740953593</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>-1.7039631944473665E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="28">
         <v>100000</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="24">
         <v>6.6139999999999999</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="28">
         <v>15119.443604475355</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="28">
         <f>[1]btc_ticker_price!$D$4</f>
         <v>8676.48</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="1">
         <v>1.8030741165238211</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <v>-1.4734525752087002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="31" t="s">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="29">
         <v>100000</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="26">
         <f>[1]vhkd_c2c_price!$B$4</f>
         <v>0.82879999999999998</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="29">
         <v>120816.72103419113</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="30">
         <v>66033</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="2">
         <v>1.8296415585266628</v>
       </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A13" s="10" t="s">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>2</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="28">
         <f>[1]btc_ticker_price!$B$3</f>
         <v>8673.3700000000008</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="28">
         <v>16770.7</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="28">
         <f>[1]usdt_c2c_price!$B$3</f>
         <v>6.5</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="28">
         <v>110183.49900000001</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="17">
         <v>-1.7936433476304914E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="28">
         <v>2</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="28">
         <f>[1]btc_ticker_price!$C$3</f>
         <v>8669.6635999999999</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="28">
         <v>16761.782999999999</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>6.61</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="28">
         <v>110795.38563</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="17">
         <v>-2.3360048934196853E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="28">
         <v>2</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="28">
         <f>[1]btc_ticker_price!$D$3</f>
         <v>8664.42</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="28">
         <v>16736.900000000001</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>6.61</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="28">
         <v>110630.90900000001</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="17">
         <v>-2.1908063685891044E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="31" t="s">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="29">
         <v>2</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="30">
         <v>65980</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="29">
         <v>131960</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="26">
         <f>[1]vhkd_c2c_price!$B$3</f>
         <v>0.82</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="29">
         <v>108207.2</v>
       </c>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="18" t="s">
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="31"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="18" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="18" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="G5:G14 G16:G19">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1"/>
   </hyperlinks>
@@ -1253,432 +1304,403 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1328125" customWidth="1"/>
-    <col min="2" max="6" width="28.1328125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="28.125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="36">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
         <v>43235.429931203704</v>
       </c>
-      <c r="C1" s="37">
+      <c r="C1" s="5">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
         <v>43235.429931203704</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A2" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="55" t="s">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="27">
         <v>100000</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="12">
         <f>[1]usdt_c2c_price!$B$4</f>
         <v>6.51</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="28">
         <v>15197.568389057751</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="28">
         <f>[1]eth_ticker_price!$B$4</f>
         <v>726.27</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="1">
         <v>21.501936034320533</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="17">
         <v>-5.1657253120538371E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="28">
         <v>100000</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="23">
         <v>6.62</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="28">
         <v>15105.740181268882</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="28">
         <f>[1]eth_ticker_price!$C$4</f>
         <v>726.94200000000001</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="1">
         <v>21.393441707206303</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="17">
         <v>-1.0263305238582543E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="28">
         <v>100000</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="24">
         <v>6.6139999999999999</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="28">
         <v>15119.443604475355</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="28">
         <f>[1]eth_ticker_price!$D$4</f>
         <v>727.34</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="1">
         <v>21.412609551728302</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="17">
         <v>-9.358951665314752E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="47" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="63" t="s">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="29">
         <v>100000</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="26">
         <f>[1]vhkd_c2c_price!$B$4</f>
         <v>0.82879999999999998</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="29">
         <v>120816.72103419113</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="30">
         <v>5590</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="2">
         <v>21.613009129551184</v>
       </c>
-      <c r="G10" s="54"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="40"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A13" s="41" t="s">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="55" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="27">
         <v>20</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="28">
         <f>[1]eth_ticker_price!$B$3</f>
         <v>726.21</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="28">
         <v>14119.400000000001</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="28">
         <f>[1]usdt_c2c_price!$B$3</f>
         <v>6.5</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="28">
         <v>92764.458000000013</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="17">
         <v>-1.3501485665986523E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="28">
         <v>20</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="28">
         <f>[1]eth_ticker_price!$C$3</f>
         <v>725.86</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="28">
         <v>14113.562</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="27">
         <v>6.61</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="28">
         <v>93290.644820000001</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="17">
         <v>-1.9065628964531345E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="28">
         <v>20</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="28">
         <f>[1]eth_ticker_price!$D$3</f>
         <v>726.68</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="28">
         <v>14086.199999999999</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="27">
         <v>6.61</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="28">
         <v>93109.781999999992</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="17">
         <v>-1.7160194833234499E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="47" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="63" t="s">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="64">
+      <c r="B21" s="29">
         <v>20</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="30">
         <v>5580</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="29">
         <v>111600</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="26">
         <f>[1]vhkd_c2c_price!$B$3</f>
         <v>0.82</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="29">
         <v>91512</v>
       </c>
-      <c r="G21" s="54"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="40"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="49" t="s">
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="31"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="49" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="49" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="G5:G14 G16:G19">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1"/>
   </hyperlinks>

--- a/IDCM Compare.xlsx
+++ b/IDCM Compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" r:id="rId1"/>
@@ -108,23 +108,22 @@
     <t>IDCM比较</t>
   </si>
   <si>
+    <t>客户买ETH</t>
+  </si>
+  <si>
+    <t>https://www.okcoin.com</t>
+  </si>
+  <si>
     <t>https://www.huobi.pro/</t>
   </si>
   <si>
-    <t>https://www.okcoin.com</t>
-  </si>
-  <si>
     <t>https://www.zb.com/</t>
   </si>
   <si>
-    <t>客户买ETH</t>
-  </si>
-  <si>
     <t>更新时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
+  </si>
+  <si>
+    <t>ETH:VHKD 买价格</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -132,11 +131,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -286,26 +287,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,7 +317,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,26 +331,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="千位分隔 2" xfId="3"/>
+    <cellStyle name="千位分隔 2" xfId="4"/>
+    <cellStyle name="千位分隔 3" xfId="3"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -515,77 +520,77 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1526350746056</v>
+            <v>1526363554540</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>8673.3700000000008</v>
+            <v>8717.17</v>
           </cell>
           <cell r="C3">
-            <v>8669.6635999999999</v>
+            <v>8718.7561999999998</v>
           </cell>
           <cell r="D3">
-            <v>8664.42</v>
+            <v>8701.2999999999993</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>8679.86</v>
+            <v>8717.2900000000009</v>
           </cell>
           <cell r="C4">
-            <v>8687.1563999999998</v>
+            <v>8722.9490000000005</v>
           </cell>
           <cell r="D4">
-            <v>8676.48</v>
+            <v>8711</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="B3">
-            <v>726.21</v>
+            <v>733</v>
           </cell>
           <cell r="C3">
-            <v>725.86</v>
+            <v>732.327</v>
           </cell>
           <cell r="D3">
-            <v>726.68</v>
+            <v>732.37</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>726.27</v>
+            <v>733.01</v>
           </cell>
           <cell r="C4">
-            <v>726.94200000000001</v>
+            <v>733.7799</v>
           </cell>
           <cell r="D4">
-            <v>727.34</v>
+            <v>734.15</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="B3">
-            <v>6.5</v>
+            <v>6.48</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>6.51</v>
+            <v>6.49</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="B3">
-            <v>0.82</v>
+            <v>0.80620000000000003</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.82879999999999998</v>
+            <v>0.82199999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -899,375 +904,404 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="28.125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="32">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43235.429931203704</v>
-      </c>
-      <c r="C1" s="5">
+        <v>43235.578177546297</v>
+      </c>
+      <c r="C1" s="33">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43235.429931203704</v>
+        <v>43235.578177546297</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="23">
         <v>100000</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <f>[1]usdt_c2c_price!$B$4</f>
-        <v>6.51</v>
-      </c>
-      <c r="D5" s="28">
-        <v>15197.568389057751</v>
-      </c>
-      <c r="E5" s="28">
+        <v>6.49</v>
+      </c>
+      <c r="D5" s="12">
+        <f>B5/C5</f>
+        <v>15408.320493066256</v>
+      </c>
+      <c r="E5" s="12">
         <f>[1]btc_ticker_price!$B$4</f>
-        <v>8679.86</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.8118442505344308</v>
-      </c>
-      <c r="G5" s="17">
-        <v>-9.8227582127892177E-3</v>
+        <v>8717.2900000000009</v>
+      </c>
+      <c r="F5" s="21">
+        <f>D5/E5</f>
+        <v>1.7675585523788075</v>
+      </c>
+      <c r="G5" s="14">
+        <f>-($F$10/(F5)-1)</f>
+        <v>3.427420001195558E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="12">
+        <f>B5</f>
         <v>100000</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="24">
         <v>6.62</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="12">
+        <f t="shared" ref="D6:D10" si="0">B6/C6</f>
         <v>15105.740181268882</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="12">
         <f>[1]btc_ticker_price!$C$4</f>
-        <v>8687.1563999999998</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.7989874740953593</v>
-      </c>
-      <c r="G6" s="17">
-        <v>-1.7039631944473665E-2</v>
+        <v>8722.9490000000005</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" ref="F6:F10" si="1">D6/E6</f>
+        <v>1.7317240054101981</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" ref="G6:G7" si="2">-($F$10/(F6)-1)</f>
+        <v>-1.7194646109816247E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="12">
+        <f>B5</f>
         <v>100000</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="25">
         <v>6.6139999999999999</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
         <v>15119.443604475355</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="12">
         <f>[1]btc_ticker_price!$D$4</f>
-        <v>8676.48</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.8030741165238211</v>
-      </c>
-      <c r="G7" s="17">
-        <v>-1.4734525752087002E-2</v>
+        <v>8711</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="1"/>
+        <v>1.7356725524595746</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.4880591587926872E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="27">
+        <f>B5</f>
         <v>100000</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="28">
         <f>[1]vhkd_c2c_price!$B$4</f>
-        <v>0.82879999999999998</v>
-      </c>
-      <c r="D10" s="29">
-        <v>120816.72103419113</v>
-      </c>
-      <c r="E10" s="30">
-        <v>66033</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.8296415585266628</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D10" s="27">
+        <f t="shared" si="0"/>
+        <v>121654.50121654502</v>
+      </c>
+      <c r="E10" s="15">
+        <v>69063</v>
+      </c>
+      <c r="F10" s="29">
+        <f t="shared" si="1"/>
+        <v>1.7615003868431001</v>
+      </c>
+      <c r="G10" s="16"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="23">
         <v>2</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="12">
         <f>[1]btc_ticker_price!$B$3</f>
-        <v>8673.3700000000008</v>
-      </c>
-      <c r="D16" s="28">
-        <v>16770.7</v>
-      </c>
-      <c r="E16" s="28">
+        <v>8717.17</v>
+      </c>
+      <c r="D16" s="12">
+        <f>C16*B16</f>
+        <v>17434.34</v>
+      </c>
+      <c r="E16" s="12">
         <f>[1]usdt_c2c_price!$B$3</f>
-        <v>6.5</v>
-      </c>
-      <c r="F16" s="28">
-        <v>110183.49900000001</v>
-      </c>
-      <c r="G16" s="17">
-        <v>-1.7936433476304914E-2</v>
+        <v>6.48</v>
+      </c>
+      <c r="F16" s="12">
+        <f>D16*E16</f>
+        <v>112974.52320000001</v>
+      </c>
+      <c r="G16" s="14">
+        <f>($F$21/(F16)-1)</f>
+        <v>-2.1180938252457371E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="12">
+        <f>B16</f>
         <v>2</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="12">
         <f>[1]btc_ticker_price!$C$3</f>
-        <v>8669.6635999999999</v>
-      </c>
-      <c r="D17" s="28">
-        <v>16761.782999999999</v>
-      </c>
-      <c r="E17" s="27">
+        <v>8718.7561999999998</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" ref="D17:D18" si="3">C17*B17</f>
+        <v>17437.5124</v>
+      </c>
+      <c r="E17" s="23">
         <v>6.61</v>
       </c>
-      <c r="F17" s="28">
-        <v>110795.38563</v>
-      </c>
-      <c r="G17" s="17">
-        <v>-2.3360048934196853E-2</v>
+      <c r="F17" s="12">
+        <f t="shared" ref="F17:F18" si="4">D17*E17</f>
+        <v>115261.956964</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" ref="G17:G18" si="5">($F$21/(F17)-1)</f>
+        <v>-4.0606113997021742E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="12">
+        <f>B16</f>
         <v>2</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="12">
         <f>[1]btc_ticker_price!$D$3</f>
-        <v>8664.42</v>
-      </c>
-      <c r="D18" s="28">
-        <v>16736.900000000001</v>
-      </c>
-      <c r="E18" s="27">
+        <v>8701.2999999999993</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="3"/>
+        <v>17402.599999999999</v>
+      </c>
+      <c r="E18" s="23">
         <v>6.61</v>
       </c>
-      <c r="F18" s="28">
-        <v>110630.90900000001</v>
-      </c>
-      <c r="G18" s="17">
-        <v>-2.1908063685891044E-2</v>
+      <c r="F18" s="12">
+        <f t="shared" si="4"/>
+        <v>115031.186</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="5"/>
+        <v>-3.8681416359560128E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="27">
+        <f>B16</f>
         <v>2</v>
       </c>
-      <c r="C21" s="30">
-        <v>65980</v>
-      </c>
-      <c r="D21" s="29">
-        <v>131960</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="C21" s="15">
+        <v>68582</v>
+      </c>
+      <c r="D21" s="27">
+        <f>C21*B21</f>
+        <v>137164</v>
+      </c>
+      <c r="E21" s="28">
         <f>[1]vhkd_c2c_price!$B$3</f>
-        <v>0.82</v>
-      </c>
-      <c r="F21" s="29">
-        <v>108207.2</v>
-      </c>
-      <c r="G21" s="18"/>
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="F21" s="27">
+        <f>D21*E21</f>
+        <v>110581.6168</v>
+      </c>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -1275,11 +1309,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1302,381 +1336,413 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="28.125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="32">
+        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
+        <v>43235.578177546297</v>
+      </c>
+      <c r="C1" s="33">
+        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
+        <v>43235.578177546297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="23">
+        <v>100000</v>
+      </c>
+      <c r="C5" s="7">
+        <f>[1]usdt_c2c_price!$B$4</f>
+        <v>6.49</v>
+      </c>
+      <c r="D5" s="12">
+        <f>B5/C5</f>
+        <v>15408.320493066256</v>
+      </c>
+      <c r="E5" s="20">
+        <f>[1]eth_ticker_price!$B$4</f>
+        <v>733.01</v>
+      </c>
+      <c r="F5" s="13">
+        <f>D5/E5</f>
+        <v>21.020614306852917</v>
+      </c>
+      <c r="G5" s="14">
+        <f>-($F$10/(F5)-1)</f>
+        <v>9.7359321158936307E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12">
+        <f>B5</f>
+        <v>100000</v>
+      </c>
+      <c r="C6" s="24">
+        <v>6.62</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" ref="D6:D10" si="0">B6/C6</f>
+        <v>15105.740181268882</v>
+      </c>
+      <c r="E6" s="20">
+        <f>[1]eth_ticker_price!$C$4</f>
+        <v>733.7799</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" ref="F6:F10" si="1">D6/E6</f>
+        <v>20.586200550422383</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" ref="G6:G7" si="2">-($F$10/(F6)-1)</f>
+        <v>-1.1160800748145627E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12">
+        <f>B5</f>
+        <v>100000</v>
+      </c>
+      <c r="C7" s="25">
+        <v>6.6139999999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>15119.443604475355</v>
+      </c>
+      <c r="E7" s="20">
+        <f>[1]eth_ticker_price!$D$4</f>
+        <v>734.15</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="1"/>
+        <v>20.594488325921617</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.0753882470905696E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4">
-        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43235.429931203704</v>
-      </c>
-      <c r="C1" s="5">
-        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43235.429931203704</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="F9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27">
+        <f>B5</f>
+        <v>100000</v>
+      </c>
+      <c r="C10" s="28">
+        <f>[1]vhkd_c2c_price!$B$4</f>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D10" s="27">
+        <f t="shared" si="0"/>
+        <v>121654.50121654502</v>
+      </c>
+      <c r="E10" s="15">
+        <v>5844.29</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" si="1"/>
+        <v>20.815959032927015</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="F15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27">
-        <v>100000</v>
-      </c>
-      <c r="C5" s="12">
-        <f>[1]usdt_c2c_price!$B$4</f>
-        <v>6.51</v>
-      </c>
-      <c r="D5" s="28">
-        <v>15197.568389057751</v>
-      </c>
-      <c r="E5" s="28">
-        <f>[1]eth_ticker_price!$B$4</f>
-        <v>726.27</v>
-      </c>
-      <c r="F5" s="1">
-        <v>21.501936034320533</v>
-      </c>
-      <c r="G5" s="17">
-        <v>-5.1657253120538371E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="B16" s="23">
+        <v>20</v>
+      </c>
+      <c r="C16" s="20">
+        <f>[1]eth_ticker_price!$B$3</f>
+        <v>733</v>
+      </c>
+      <c r="D16" s="12">
+        <f>C16*B16</f>
+        <v>14660</v>
+      </c>
+      <c r="E16" s="12">
+        <f>[1]usdt_c2c_price!$B$3</f>
+        <v>6.48</v>
+      </c>
+      <c r="F16" s="12">
+        <f>D16*E16</f>
+        <v>94996.800000000003</v>
+      </c>
+      <c r="G16" s="14">
+        <f>($F$21/(F16)-1)</f>
+        <v>-1.6854355515133146E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28">
-        <v>100000</v>
-      </c>
-      <c r="C6" s="23">
-        <v>6.62</v>
-      </c>
-      <c r="D6" s="28">
-        <v>15105.740181268882</v>
-      </c>
-      <c r="E6" s="28">
-        <f>[1]eth_ticker_price!$C$4</f>
-        <v>726.94200000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>21.393441707206303</v>
-      </c>
-      <c r="G6" s="17">
-        <v>-1.0263305238582543E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="B17" s="12">
+        <f>B16</f>
+        <v>20</v>
+      </c>
+      <c r="C17" s="20">
+        <f>[1]eth_ticker_price!$C$3</f>
+        <v>732.327</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" ref="D17:D18" si="3">C17*B17</f>
+        <v>14646.54</v>
+      </c>
+      <c r="E17" s="23">
+        <v>6.61</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" ref="F17:F18" si="4">D17*E17</f>
+        <v>96813.629400000005</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" ref="G17:G18" si="5">($F$21/(F17)-1)</f>
+        <v>-3.5304318835918003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="28">
-        <v>100000</v>
-      </c>
-      <c r="C7" s="24">
-        <v>6.6139999999999999</v>
-      </c>
-      <c r="D7" s="28">
-        <v>15119.443604475355</v>
-      </c>
-      <c r="E7" s="28">
-        <f>[1]eth_ticker_price!$D$4</f>
-        <v>727.34</v>
-      </c>
-      <c r="F7" s="1">
-        <v>21.412609551728302</v>
-      </c>
-      <c r="G7" s="17">
-        <v>-9.358951665314752E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="B18" s="12">
+        <f>B16</f>
+        <v>20</v>
+      </c>
+      <c r="C18" s="20">
+        <f>[1]eth_ticker_price!$D$3</f>
+        <v>732.37</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="3"/>
+        <v>14647.4</v>
+      </c>
+      <c r="E18" s="23">
+        <v>6.61</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="4"/>
+        <v>96819.313999999998</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="5"/>
+        <v>-3.5360959487897192E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="F20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29">
-        <v>100000</v>
-      </c>
-      <c r="C10" s="26">
-        <f>[1]vhkd_c2c_price!$B$4</f>
-        <v>0.82879999999999998</v>
-      </c>
-      <c r="D10" s="29">
-        <v>120816.72103419113</v>
-      </c>
-      <c r="E10" s="30">
-        <v>5590</v>
-      </c>
-      <c r="F10" s="2">
-        <v>21.613009129551184</v>
-      </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="B21" s="27">
+        <f>B16</f>
+        <v>20</v>
+      </c>
+      <c r="C21" s="15">
+        <v>5792.34</v>
+      </c>
+      <c r="D21" s="27">
+        <f>C21*B21</f>
+        <v>115846.8</v>
+      </c>
+      <c r="E21" s="28">
+        <f>[1]vhkd_c2c_price!$B$3</f>
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="F21" s="27">
+        <f>D21*E21</f>
+        <v>93395.690159999998</v>
+      </c>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="27">
-        <v>20</v>
-      </c>
-      <c r="C16" s="28">
-        <f>[1]eth_ticker_price!$B$3</f>
-        <v>726.21</v>
-      </c>
-      <c r="D16" s="28">
-        <v>14119.400000000001</v>
-      </c>
-      <c r="E16" s="28">
-        <f>[1]usdt_c2c_price!$B$3</f>
-        <v>6.5</v>
-      </c>
-      <c r="F16" s="28">
-        <v>92764.458000000013</v>
-      </c>
-      <c r="G16" s="17">
-        <v>-1.3501485665986523E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="28">
-        <v>20</v>
-      </c>
-      <c r="C17" s="28">
-        <f>[1]eth_ticker_price!$C$3</f>
-        <v>725.86</v>
-      </c>
-      <c r="D17" s="28">
-        <v>14113.562</v>
-      </c>
-      <c r="E17" s="27">
-        <v>6.61</v>
-      </c>
-      <c r="F17" s="28">
-        <v>93290.644820000001</v>
-      </c>
-      <c r="G17" s="17">
-        <v>-1.9065628964531345E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="28">
-        <v>20</v>
-      </c>
-      <c r="C18" s="28">
-        <f>[1]eth_ticker_price!$D$3</f>
-        <v>726.68</v>
-      </c>
-      <c r="D18" s="28">
-        <v>14086.199999999999</v>
-      </c>
-      <c r="E18" s="27">
-        <v>6.61</v>
-      </c>
-      <c r="F18" s="28">
-        <v>93109.781999999992</v>
-      </c>
-      <c r="G18" s="17">
-        <v>-1.7160194833234499E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="29">
-        <v>20</v>
-      </c>
-      <c r="C21" s="30">
-        <v>5580</v>
-      </c>
-      <c r="D21" s="29">
-        <v>111600</v>
-      </c>
-      <c r="E21" s="26">
-        <f>[1]vhkd_c2c_price!$B$3</f>
-        <v>0.82</v>
-      </c>
-      <c r="F21" s="29">
-        <v>91512</v>
-      </c>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="31"/>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>7</v>
-      </c>
       <c r="B24" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -1684,16 +1750,33 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G14 G16:G19">
+  <conditionalFormatting sqref="G5:G7">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -1705,6 +1788,5 @@
     <hyperlink ref="B24" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/IDCM Compare.xlsx
+++ b/IDCM Compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" r:id="rId1"/>
@@ -131,13 +131,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000000"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -292,7 +291,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -352,7 +351,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -520,82 +519,82 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1526363554540</v>
+            <v>1526550039052</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>8717.17</v>
+            <v>8283.7199999999993</v>
           </cell>
           <cell r="C3">
-            <v>8718.7561999999998</v>
+            <v>8287.5108</v>
           </cell>
           <cell r="D3">
-            <v>8701.2999999999993</v>
+            <v>8300.7199999999993</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>8717.2900000000009</v>
+            <v>8285.5400000000009</v>
           </cell>
           <cell r="C4">
-            <v>8722.9490000000005</v>
+            <v>8292.8068999999996</v>
           </cell>
           <cell r="D4">
-            <v>8711</v>
+            <v>8301.02</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="B3">
-            <v>733</v>
+            <v>704.1</v>
           </cell>
           <cell r="C3">
-            <v>732.327</v>
+            <v>702.86779999999999</v>
           </cell>
           <cell r="D3">
-            <v>732.37</v>
+            <v>703.72</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>733.01</v>
+            <v>704.38</v>
           </cell>
           <cell r="C4">
-            <v>733.7799</v>
+            <v>703.81910000000005</v>
           </cell>
           <cell r="D4">
-            <v>734.15</v>
+            <v>704.71</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="B3">
-            <v>6.48</v>
+            <v>6.49</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>6.49</v>
+            <v>6.5</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="B3">
-            <v>0.80620000000000003</v>
+            <v>0.80769999999999997</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.82199999999999995</v>
+            <v>0.82299999999999995</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -916,11 +915,11 @@
       </c>
       <c r="B1" s="32">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43235.578177546297</v>
+        <v>43237.736563101847</v>
       </c>
       <c r="C1" s="33">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43235.578177546297</v>
+        <v>43237.736563101847</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -975,23 +974,23 @@
       </c>
       <c r="C5" s="7">
         <f>[1]usdt_c2c_price!$B$4</f>
-        <v>6.49</v>
+        <v>6.5</v>
       </c>
       <c r="D5" s="12">
         <f>B5/C5</f>
-        <v>15408.320493066256</v>
+        <v>15384.615384615385</v>
       </c>
       <c r="E5" s="12">
         <f>[1]btc_ticker_price!$B$4</f>
-        <v>8717.2900000000009</v>
+        <v>8285.5400000000009</v>
       </c>
       <c r="F5" s="21">
         <f>D5/E5</f>
-        <v>1.7675585523788075</v>
+        <v>1.856802982619767</v>
       </c>
       <c r="G5" s="14">
         <f>-($F$10/(F5)-1)</f>
-        <v>3.427420001195558E-3</v>
+        <v>2.1705787374365348E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1003,23 +1002,23 @@
         <v>100000</v>
       </c>
       <c r="C6" s="24">
-        <v>6.62</v>
+        <v>6.5</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" ref="D6:D10" si="0">B6/C6</f>
-        <v>15105.740181268882</v>
+        <v>15384.615384615385</v>
       </c>
       <c r="E6" s="12">
         <f>[1]btc_ticker_price!$C$4</f>
-        <v>8722.9490000000005</v>
+        <v>8292.8068999999996</v>
       </c>
       <c r="F6" s="21">
         <f t="shared" ref="F6:F10" si="1">D6/E6</f>
-        <v>1.7317240054101981</v>
+        <v>1.855175885575653</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" ref="G6:G7" si="2">-($F$10/(F6)-1)</f>
-        <v>-1.7194646109816247E-2</v>
+        <v>1.2954243574719859E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1031,23 +1030,23 @@
         <v>100000</v>
       </c>
       <c r="C7" s="25">
-        <v>6.6139999999999999</v>
+        <v>6.5679999999999996</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>15119.443604475355</v>
+        <v>15225.334957369063</v>
       </c>
       <c r="E7" s="12">
         <f>[1]btc_ticker_price!$D$4</f>
-        <v>8711</v>
+        <v>8301.02</v>
       </c>
       <c r="F7" s="21">
         <f t="shared" si="1"/>
-        <v>1.7356725524595746</v>
+        <v>1.8341523038577261</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" si="2"/>
-        <v>-1.4880591587926872E-2</v>
+        <v>-1.0152014993080938E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1090,18 +1089,18 @@
       </c>
       <c r="C10" s="28">
         <f>[1]vhkd_c2c_price!$B$4</f>
-        <v>0.82199999999999995</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>121654.50121654502</v>
+        <v>121506.68286755773</v>
       </c>
       <c r="E10" s="15">
-        <v>69063</v>
+        <v>65581</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" si="1"/>
-        <v>1.7615003868431001</v>
+        <v>1.8527726455460838</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -1157,23 +1156,23 @@
       </c>
       <c r="C16" s="12">
         <f>[1]btc_ticker_price!$B$3</f>
-        <v>8717.17</v>
+        <v>8283.7199999999993</v>
       </c>
       <c r="D16" s="12">
         <f>C16*B16</f>
-        <v>17434.34</v>
+        <v>16567.439999999999</v>
       </c>
       <c r="E16" s="12">
         <f>[1]usdt_c2c_price!$B$3</f>
-        <v>6.48</v>
+        <v>6.49</v>
       </c>
       <c r="F16" s="12">
         <f>D16*E16</f>
-        <v>112974.52320000001</v>
+        <v>107522.6856</v>
       </c>
       <c r="G16" s="14">
         <f>($F$21/(F16)-1)</f>
-        <v>-2.1180938252457371E-2</v>
+        <v>-2.1604663118645173E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1186,22 +1185,22 @@
       </c>
       <c r="C17" s="12">
         <f>[1]btc_ticker_price!$C$3</f>
-        <v>8718.7561999999998</v>
+        <v>8287.5108</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" ref="D17:D18" si="3">C17*B17</f>
-        <v>17437.5124</v>
+        <v>16575.0216</v>
       </c>
       <c r="E17" s="23">
-        <v>6.61</v>
+        <v>6.5</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" ref="F17:F18" si="4">D17*E17</f>
-        <v>115261.956964</v>
+        <v>107737.6404</v>
       </c>
       <c r="G17" s="14">
         <f t="shared" ref="G17:G18" si="5">($F$21/(F17)-1)</f>
-        <v>-4.0606113997021742E-2</v>
+        <v>-2.3556727162181379E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1214,22 +1213,22 @@
       </c>
       <c r="C18" s="12">
         <f>[1]btc_ticker_price!$D$3</f>
-        <v>8701.2999999999993</v>
+        <v>8300.7199999999993</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="3"/>
-        <v>17402.599999999999</v>
+        <v>16601.439999999999</v>
       </c>
       <c r="E18" s="23">
-        <v>6.61</v>
+        <v>6.4630000000000001</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="4"/>
-        <v>115031.186</v>
+        <v>107295.10672</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="5"/>
-        <v>-3.8681416359560128E-2</v>
+        <v>-1.9529432273815095E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1271,19 +1270,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="15">
-        <v>68582</v>
+        <v>65123</v>
       </c>
       <c r="D21" s="27">
         <f>C21*B21</f>
-        <v>137164</v>
+        <v>130246</v>
       </c>
       <c r="E21" s="28">
         <f>[1]vhkd_c2c_price!$B$3</f>
-        <v>0.80620000000000003</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="F21" s="27">
         <f>D21*E21</f>
-        <v>110581.6168</v>
+        <v>105199.6942</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -1354,11 +1353,11 @@
       </c>
       <c r="B1" s="32">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43235.578177546297</v>
+        <v>43237.736563101847</v>
       </c>
       <c r="C1" s="33">
         <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43235.578177546297</v>
+        <v>43237.736563101847</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1413,23 +1412,23 @@
       </c>
       <c r="C5" s="7">
         <f>[1]usdt_c2c_price!$B$4</f>
-        <v>6.49</v>
+        <v>6.5</v>
       </c>
       <c r="D5" s="12">
         <f>B5/C5</f>
-        <v>15408.320493066256</v>
+        <v>15384.615384615385</v>
       </c>
       <c r="E5" s="20">
         <f>[1]eth_ticker_price!$B$4</f>
-        <v>733.01</v>
+        <v>704.38</v>
       </c>
       <c r="F5" s="13">
         <f>D5/E5</f>
-        <v>21.020614306852917</v>
+        <v>21.841357484050349</v>
       </c>
       <c r="G5" s="14">
         <f>-($F$10/(F5)-1)</f>
-        <v>9.7359321158936307E-3</v>
+        <v>1.0061462471344651E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1441,23 +1440,24 @@
         <v>100000</v>
       </c>
       <c r="C6" s="24">
-        <v>6.62</v>
+        <f>BTC!C6</f>
+        <v>6.5</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" ref="D6:D10" si="0">B6/C6</f>
-        <v>15105.740181268882</v>
+        <v>15384.615384615385</v>
       </c>
       <c r="E6" s="20">
         <f>[1]eth_ticker_price!$C$4</f>
-        <v>733.7799</v>
+        <v>703.81910000000005</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" ref="F6:F10" si="1">D6/E6</f>
-        <v>20.586200550422383</v>
+        <v>21.858763686031516</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" ref="G6:G7" si="2">-($F$10/(F6)-1)</f>
-        <v>-1.1160800748145627E-2</v>
+        <v>1.8016481815589236E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1469,23 +1469,24 @@
         <v>100000</v>
       </c>
       <c r="C7" s="25">
-        <v>6.6139999999999999</v>
+        <f>BTC!C7</f>
+        <v>6.5679999999999996</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>15119.443604475355</v>
+        <v>15225.334957369063</v>
       </c>
       <c r="E7" s="20">
         <f>[1]eth_ticker_price!$D$4</f>
-        <v>734.15</v>
+        <v>704.71</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="1"/>
-        <v>20.594488325921617</v>
+        <v>21.605107004823349</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" si="2"/>
-        <v>-1.0753882470905696E-2</v>
+        <v>-9.9177883874523864E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1528,18 +1529,18 @@
       </c>
       <c r="C10" s="28">
         <f>[1]vhkd_c2c_price!$B$4</f>
-        <v>0.82199999999999995</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>121654.50121654502</v>
+        <v>121506.68286755773</v>
       </c>
       <c r="E10" s="15">
-        <v>5844.29</v>
+        <v>5568.75</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" si="1"/>
-        <v>20.815959032927015</v>
+        <v>21.81938188418545</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -1598,23 +1599,23 @@
       </c>
       <c r="C16" s="20">
         <f>[1]eth_ticker_price!$B$3</f>
-        <v>733</v>
+        <v>704.1</v>
       </c>
       <c r="D16" s="12">
         <f>C16*B16</f>
-        <v>14660</v>
+        <v>14082</v>
       </c>
       <c r="E16" s="12">
         <f>[1]usdt_c2c_price!$B$3</f>
-        <v>6.48</v>
+        <v>6.49</v>
       </c>
       <c r="F16" s="12">
         <f>D16*E16</f>
-        <v>94996.800000000003</v>
+        <v>91392.180000000008</v>
       </c>
       <c r="G16" s="14">
         <f>($F$21/(F16)-1)</f>
-        <v>-1.6854355515133146E-2</v>
+        <v>-2.5494618029682781E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1627,22 +1628,23 @@
       </c>
       <c r="C17" s="20">
         <f>[1]eth_ticker_price!$C$3</f>
-        <v>732.327</v>
+        <v>702.86779999999999</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" ref="D17:D18" si="3">C17*B17</f>
-        <v>14646.54</v>
+        <v>14057.356</v>
       </c>
       <c r="E17" s="23">
-        <v>6.61</v>
+        <f>BTC!E17</f>
+        <v>6.5</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" ref="F17:F18" si="4">D17*E17</f>
-        <v>96813.629400000005</v>
+        <v>91372.813999999998</v>
       </c>
       <c r="G17" s="14">
         <f t="shared" ref="G17:G18" si="5">($F$21/(F17)-1)</f>
-        <v>-3.5304318835918003E-2</v>
+        <v>-2.528807660449206E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1655,22 +1657,23 @@
       </c>
       <c r="C18" s="20">
         <f>[1]eth_ticker_price!$D$3</f>
-        <v>732.37</v>
+        <v>703.72</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="3"/>
-        <v>14647.4</v>
+        <v>14074.400000000001</v>
       </c>
       <c r="E18" s="23">
-        <v>6.61</v>
+        <f>BTC!E18</f>
+        <v>6.4630000000000001</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="4"/>
-        <v>96819.313999999998</v>
+        <v>90962.847200000004</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="5"/>
-        <v>-3.5360959487897192E-2</v>
+        <v>-2.0895079458330912E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1712,19 +1715,19 @@
         <v>20</v>
       </c>
       <c r="C21" s="15">
-        <v>5792.34</v>
+        <v>5513.32</v>
       </c>
       <c r="D21" s="27">
         <f>C21*B21</f>
-        <v>115846.8</v>
+        <v>110266.4</v>
       </c>
       <c r="E21" s="28">
         <f>[1]vhkd_c2c_price!$B$3</f>
-        <v>0.80620000000000003</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="F21" s="27">
         <f>D21*E21</f>
-        <v>93395.690159999998</v>
+        <v>89062.171279999995</v>
       </c>
       <c r="G21" s="16"/>
     </row>

--- a/IDCM Compare.xlsx
+++ b/IDCM Compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000000"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="0" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -351,7 +351,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -518,78 +518,78 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
-            <v>1526550039052</v>
+          <cell r="C2">
+            <v>1526610183014</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>8283.7199999999993</v>
+            <v>7993.99</v>
           </cell>
           <cell r="C3">
-            <v>8287.5108</v>
+            <v>7993.13</v>
           </cell>
           <cell r="D3">
-            <v>8300.7199999999993</v>
+            <v>7997</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>8285.5400000000009</v>
+            <v>8008.33</v>
           </cell>
           <cell r="C4">
-            <v>8292.8068999999996</v>
+            <v>7993.9</v>
           </cell>
           <cell r="D4">
-            <v>8301.02</v>
+            <v>8011.6598000000004</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="B3">
-            <v>704.1</v>
+            <v>669.39</v>
           </cell>
           <cell r="C3">
-            <v>702.86779999999999</v>
+            <v>670.27</v>
           </cell>
           <cell r="D3">
-            <v>703.72</v>
+            <v>670</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>704.38</v>
+            <v>669.4</v>
           </cell>
           <cell r="C4">
-            <v>703.81910000000005</v>
+            <v>670.47</v>
           </cell>
           <cell r="D4">
-            <v>704.71</v>
+            <v>670.69</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="B3">
-            <v>6.49</v>
+            <v>6.52</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>6.5</v>
+            <v>6.53</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="B3">
-            <v>0.80769999999999997</v>
+            <v>0.80810000000000004</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.82299999999999995</v>
+            <v>0.83209999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -899,7 +899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -914,12 +916,12 @@
         <v>30</v>
       </c>
       <c r="B1" s="32">
-        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43237.736563101847</v>
+        <f>(MAX([1]btc_ticker_price!$B$2:$D$2)/1000+8*3600)/86400+70*365+19</f>
+        <v>43238.432673773146</v>
       </c>
       <c r="C1" s="33">
-        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43237.736563101847</v>
+        <f>(MAX([1]btc_ticker_price!$B$2:$D$2)/1000+8*3600)/86400+70*365+19</f>
+        <v>43238.432673773146</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -974,23 +976,23 @@
       </c>
       <c r="C5" s="7">
         <f>[1]usdt_c2c_price!$B$4</f>
-        <v>6.5</v>
+        <v>6.53</v>
       </c>
       <c r="D5" s="12">
         <f>B5/C5</f>
-        <v>15384.615384615385</v>
+        <v>15313.935681470137</v>
       </c>
       <c r="E5" s="12">
         <f>[1]btc_ticker_price!$B$4</f>
-        <v>8285.5400000000009</v>
+        <v>8008.33</v>
       </c>
       <c r="F5" s="21">
         <f>D5/E5</f>
-        <v>1.856802982619767</v>
+        <v>1.9122508290080624</v>
       </c>
       <c r="G5" s="14">
         <f>-($F$10/(F5)-1)</f>
-        <v>2.1705787374365348E-3</v>
+        <v>6.8224914844320361E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1002,23 +1004,23 @@
         <v>100000</v>
       </c>
       <c r="C6" s="24">
-        <v>6.5</v>
+        <v>6.53</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" ref="D6:D10" si="0">B6/C6</f>
-        <v>15384.615384615385</v>
+        <v>15313.935681470137</v>
       </c>
       <c r="E6" s="12">
         <f>[1]btc_ticker_price!$C$4</f>
-        <v>8292.8068999999996</v>
+        <v>7993.9</v>
       </c>
       <c r="F6" s="21">
         <f t="shared" ref="F6:F10" si="1">D6/E6</f>
-        <v>1.855175885575653</v>
+        <v>1.9157026834799207</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" ref="G6:G7" si="2">-($F$10/(F6)-1)</f>
-        <v>1.2954243574719859E-3</v>
+        <v>8.6120720146899421E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1030,23 +1032,23 @@
         <v>100000</v>
       </c>
       <c r="C7" s="25">
-        <v>6.5679999999999996</v>
+        <v>6.6989999999999998</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>15225.334957369063</v>
+        <v>14927.601134497687</v>
       </c>
       <c r="E7" s="12">
         <f>[1]btc_ticker_price!$D$4</f>
-        <v>8301.02</v>
+        <v>8011.6598000000004</v>
       </c>
       <c r="F7" s="21">
         <f t="shared" si="1"/>
-        <v>1.8341523038577261</v>
+        <v>1.8632345240742356</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" si="2"/>
-        <v>-1.0152014993080938E-2</v>
+        <v>-1.9305132806452852E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1089,18 +1091,18 @@
       </c>
       <c r="C10" s="28">
         <f>[1]vhkd_c2c_price!$B$4</f>
-        <v>0.82299999999999995</v>
+        <v>0.83209999999999995</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>121506.68286755773</v>
+        <v>120177.86323759165</v>
       </c>
       <c r="E10" s="15">
-        <v>65581</v>
+        <v>63278</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" si="1"/>
-        <v>1.8527726455460838</v>
+        <v>1.8992045140110567</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -1156,23 +1158,23 @@
       </c>
       <c r="C16" s="12">
         <f>[1]btc_ticker_price!$B$3</f>
-        <v>8283.7199999999993</v>
+        <v>7993.99</v>
       </c>
       <c r="D16" s="12">
         <f>C16*B16</f>
-        <v>16567.439999999999</v>
+        <v>15987.98</v>
       </c>
       <c r="E16" s="12">
         <f>[1]usdt_c2c_price!$B$3</f>
-        <v>6.49</v>
+        <v>6.52</v>
       </c>
       <c r="F16" s="12">
         <f>D16*E16</f>
-        <v>107522.6856</v>
+        <v>104241.62959999999</v>
       </c>
       <c r="G16" s="14">
         <f>($F$21/(F16)-1)</f>
-        <v>-2.1604663118645173E-2</v>
+        <v>-2.5783390093893743E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1185,22 +1187,22 @@
       </c>
       <c r="C17" s="12">
         <f>[1]btc_ticker_price!$C$3</f>
-        <v>8287.5108</v>
+        <v>7993.13</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" ref="D17:D18" si="3">C17*B17</f>
-        <v>16575.0216</v>
+        <v>15986.26</v>
       </c>
       <c r="E17" s="23">
-        <v>6.5</v>
+        <v>6.52</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" ref="F17:F18" si="4">D17*E17</f>
-        <v>107737.6404</v>
+        <v>104230.41519999999</v>
       </c>
       <c r="G17" s="14">
         <f t="shared" ref="G17:G18" si="5">($F$21/(F17)-1)</f>
-        <v>-2.3556727162181379E-2</v>
+        <v>-2.5678571795615168E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1213,22 +1215,22 @@
       </c>
       <c r="C18" s="12">
         <f>[1]btc_ticker_price!$D$3</f>
-        <v>8300.7199999999993</v>
+        <v>7997</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="3"/>
-        <v>16601.439999999999</v>
+        <v>15994</v>
       </c>
       <c r="E18" s="23">
-        <v>6.4630000000000001</v>
+        <v>6.492</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="4"/>
-        <v>107295.10672</v>
+        <v>103833.048</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="5"/>
-        <v>-1.9529432273815095E-2</v>
+        <v>-2.1949861281159611E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1270,19 +1272,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="15">
-        <v>65123</v>
+        <v>62835</v>
       </c>
       <c r="D21" s="27">
         <f>C21*B21</f>
-        <v>130246</v>
+        <v>125670</v>
       </c>
       <c r="E21" s="28">
         <f>[1]vhkd_c2c_price!$B$3</f>
-        <v>0.80769999999999997</v>
+        <v>0.80810000000000004</v>
       </c>
       <c r="F21" s="27">
         <f>D21*E21</f>
-        <v>105199.6942</v>
+        <v>101553.92700000001</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -1337,7 +1339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1352,12 +1354,12 @@
         <v>30</v>
       </c>
       <c r="B1" s="32">
-        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43237.736563101847</v>
+        <f>(MAX([1]btc_ticker_price!$B$2:$D$2)/1000+8*3600)/86400+70*365+19</f>
+        <v>43238.432673773146</v>
       </c>
       <c r="C1" s="33">
-        <f>([1]btc_ticker_price!$B$2/1000+8*3600)/86400+70*365+19</f>
-        <v>43237.736563101847</v>
+        <f>(MAX([1]btc_ticker_price!$B$2:$D$2)/1000+8*3600)/86400+70*365+19</f>
+        <v>43238.432673773146</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1412,23 +1414,23 @@
       </c>
       <c r="C5" s="7">
         <f>[1]usdt_c2c_price!$B$4</f>
-        <v>6.5</v>
+        <v>6.53</v>
       </c>
       <c r="D5" s="12">
         <f>B5/C5</f>
-        <v>15384.615384615385</v>
+        <v>15313.935681470137</v>
       </c>
       <c r="E5" s="20">
         <f>[1]eth_ticker_price!$B$4</f>
-        <v>704.38</v>
+        <v>669.4</v>
       </c>
       <c r="F5" s="13">
         <f>D5/E5</f>
-        <v>21.841357484050349</v>
+        <v>22.877107381939254</v>
       </c>
       <c r="G5" s="14">
         <f>-($F$10/(F5)-1)</f>
-        <v>1.0061462471344651E-3</v>
+        <v>8.5228182686640785E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1441,23 +1443,23 @@
       </c>
       <c r="C6" s="24">
         <f>BTC!C6</f>
-        <v>6.5</v>
+        <v>6.53</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" ref="D6:D10" si="0">B6/C6</f>
-        <v>15384.615384615385</v>
+        <v>15313.935681470137</v>
       </c>
       <c r="E6" s="20">
         <f>[1]eth_ticker_price!$C$4</f>
-        <v>703.81910000000005</v>
+        <v>670.47</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" ref="F6:F10" si="1">D6/E6</f>
-        <v>21.858763686031516</v>
+        <v>22.840597911122252</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" ref="G6:G7" si="2">-($F$10/(F6)-1)</f>
-        <v>1.8016481815589236E-3</v>
+        <v>6.9379951667033479E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1470,23 +1472,23 @@
       </c>
       <c r="C7" s="25">
         <f>BTC!C7</f>
-        <v>6.5679999999999996</v>
+        <v>6.6989999999999998</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>15225.334957369063</v>
+        <v>14927.601134497687</v>
       </c>
       <c r="E7" s="20">
         <f>[1]eth_ticker_price!$D$4</f>
-        <v>704.71</v>
+        <v>670.69</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="1"/>
-        <v>21.605107004823349</v>
+        <v>22.257080222603118</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" si="2"/>
-        <v>-9.9177883874523864E-3</v>
+        <v>-1.9097281689962831E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1529,18 +1531,18 @@
       </c>
       <c r="C10" s="28">
         <f>[1]vhkd_c2c_price!$B$4</f>
-        <v>0.82299999999999995</v>
+        <v>0.83209999999999995</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>121506.68286755773</v>
+        <v>120177.86323759165</v>
       </c>
       <c r="E10" s="15">
-        <v>5568.75</v>
+        <v>5298.35</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" si="1"/>
-        <v>21.81938188418545</v>
+        <v>22.682129953210271</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -1599,23 +1601,23 @@
       </c>
       <c r="C16" s="20">
         <f>[1]eth_ticker_price!$B$3</f>
-        <v>704.1</v>
+        <v>669.39</v>
       </c>
       <c r="D16" s="12">
         <f>C16*B16</f>
-        <v>14082</v>
+        <v>13387.8</v>
       </c>
       <c r="E16" s="12">
         <f>[1]usdt_c2c_price!$B$3</f>
-        <v>6.49</v>
+        <v>6.52</v>
       </c>
       <c r="F16" s="12">
         <f>D16*E16</f>
-        <v>91392.180000000008</v>
+        <v>87288.455999999991</v>
       </c>
       <c r="G16" s="14">
         <f>($F$21/(F16)-1)</f>
-        <v>-2.5494618029682781E-2</v>
+        <v>-2.8744566177227315E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1628,23 +1630,23 @@
       </c>
       <c r="C17" s="20">
         <f>[1]eth_ticker_price!$C$3</f>
-        <v>702.86779999999999</v>
+        <v>670.27</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" ref="D17:D18" si="3">C17*B17</f>
-        <v>14057.356</v>
+        <v>13405.4</v>
       </c>
       <c r="E17" s="23">
         <f>BTC!E17</f>
-        <v>6.5</v>
+        <v>6.52</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" ref="F17:F18" si="4">D17*E17</f>
-        <v>91372.813999999998</v>
+        <v>87403.207999999999</v>
       </c>
       <c r="G17" s="14">
         <f t="shared" ref="G17:G18" si="5">($F$21/(F17)-1)</f>
-        <v>-2.528807660449206E-2</v>
+        <v>-3.0019731083554713E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1657,23 +1659,23 @@
       </c>
       <c r="C18" s="20">
         <f>[1]eth_ticker_price!$D$3</f>
-        <v>703.72</v>
+        <v>670</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="3"/>
-        <v>14074.400000000001</v>
+        <v>13400</v>
       </c>
       <c r="E18" s="23">
         <f>BTC!E18</f>
-        <v>6.4630000000000001</v>
+        <v>6.492</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="4"/>
-        <v>90962.847200000004</v>
+        <v>86992.8</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="5"/>
-        <v>-2.0895079458330912E-2</v>
+        <v>-2.5443632116680992E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1715,19 +1717,19 @@
         <v>20</v>
       </c>
       <c r="C21" s="15">
-        <v>5513.32</v>
+        <v>5245.6</v>
       </c>
       <c r="D21" s="27">
         <f>C21*B21</f>
-        <v>110266.4</v>
+        <v>104912</v>
       </c>
       <c r="E21" s="28">
         <f>[1]vhkd_c2c_price!$B$3</f>
-        <v>0.80769999999999997</v>
+        <v>0.80810000000000004</v>
       </c>
       <c r="F21" s="27">
         <f>D21*E21</f>
-        <v>89062.171279999995</v>
+        <v>84779.387199999997</v>
       </c>
       <c r="G21" s="16"/>
     </row>
